--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1032781.922607676</v>
+        <v>1069203.419195127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.13461325</v>
+        <v>2820057.507897161</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6646376.783726796</v>
+        <v>7125753.443246311</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>209.3371091232764</v>
       </c>
       <c r="D2" t="n">
-        <v>186.1320522797926</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>103.8121020651558</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.12043047005092</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>141.965842109514</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -908,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>140.0871666311209</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>98.15366458399251</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,16 +1113,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.5684609153467</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>197.1025577403858</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>253.4730871880425</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>196.188005507174</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>186.5146679205613</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.20386845977845</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>178.6464323367722</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>168.9733955350582</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2008,19 +2010,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>38.74574112265447</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>73.00344584027698</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2713,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>171.1720094918774</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2950,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>227.1973663686527</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>11.12043047005062</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>157.1343384674811</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>104.9037564455526</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>218.008057705788</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>57.24387488545715</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>69.61444029309516</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>153.4880127104425</v>
       </c>
       <c r="Y41" t="n">
-        <v>187.7873116000991</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182444</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>360.225788877405</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>53.18186455700398</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>50.32956823034543</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979.5651044848208</v>
+        <v>1020.453694912913</v>
       </c>
       <c r="C2" t="n">
-        <v>979.5651044848208</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="D2" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E2" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>1764.655379315307</v>
+        <v>1860.008469872807</v>
       </c>
       <c r="M2" t="n">
-        <v>2438.457030428621</v>
+        <v>1860.008469872807</v>
       </c>
       <c r="N2" t="n">
-        <v>2722.430913589148</v>
+        <v>2749.74321699021</v>
       </c>
       <c r="O2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>2653.750677781458</v>
       </c>
       <c r="W2" t="n">
-        <v>1384.902374529931</v>
+        <v>2257.359328081805</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.902374529931</v>
+        <v>1845.639329249552</v>
       </c>
       <c r="Y2" t="n">
-        <v>979.5651044848208</v>
+        <v>1440.302059204443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L3" t="n">
-        <v>728.2502693850971</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="M3" t="n">
-        <v>1189.334597738979</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="N3" t="n">
-        <v>1863.136248852293</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.1355650385105</v>
+        <v>756.4898314602763</v>
       </c>
       <c r="C4" t="n">
-        <v>708.2748558817875</v>
+        <v>584.5172683391922</v>
       </c>
       <c r="D4" t="n">
-        <v>708.2748558817875</v>
+        <v>421.2004954659629</v>
       </c>
       <c r="E4" t="n">
-        <v>708.2748558817875</v>
+        <v>254.9922896188165</v>
       </c>
       <c r="F4" t="n">
-        <v>708.2748558817875</v>
+        <v>83.13051539337692</v>
       </c>
       <c r="G4" t="n">
-        <v>542.0178861760197</v>
+        <v>83.13051539337692</v>
       </c>
       <c r="H4" t="n">
-        <v>542.0178861760197</v>
+        <v>83.13051539337692</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2552.295866108283</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T4" t="n">
-        <v>2308.956518334183</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U4" t="n">
-        <v>2028.772069834487</v>
+        <v>1972.126336256253</v>
       </c>
       <c r="V4" t="n">
-        <v>1747.060602442516</v>
+        <v>1690.414868864282</v>
       </c>
       <c r="W4" t="n">
-        <v>1472.208198615029</v>
+        <v>1415.562465036795</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.644302060834</v>
+        <v>1172.9985684826</v>
       </c>
       <c r="Y4" t="n">
-        <v>1003.301533750576</v>
+        <v>946.655800172342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1755.743090736225</v>
+        <v>1894.030402745774</v>
       </c>
       <c r="C5" t="n">
-        <v>1328.842360749525</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D5" t="n">
-        <v>905.5497399345252</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E5" t="n">
-        <v>479.5728000823827</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F5" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K5" t="n">
-        <v>701.0259602492056</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L5" t="n">
-        <v>701.0259602492056</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M5" t="n">
-        <v>1374.82761136252</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.430913589148</v>
+        <v>2719.216037082414</v>
       </c>
       <c r="X5" t="n">
-        <v>2580.928725072864</v>
+        <v>2719.216037082414</v>
       </c>
       <c r="Y5" t="n">
-        <v>2175.591455027755</v>
+        <v>2313.878767037304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="L6" t="n">
-        <v>728.2502693850971</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="M6" t="n">
-        <v>1189.334597738979</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.136248852293</v>
+        <v>969.0791474221351</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>171.042873084227</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>171.042873084227</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>171.042873084227</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T7" t="n">
-        <v>1991.522297910811</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U7" t="n">
-        <v>1711.337849411115</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V7" t="n">
-        <v>1711.337849411115</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W7" t="n">
-        <v>1711.337849411115</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X7" t="n">
-        <v>1468.773952856921</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1508.982295012133</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C8" t="n">
-        <v>1508.982295012133</v>
+        <v>1177.200739412026</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.888802345077</v>
+        <v>753.908118597026</v>
       </c>
       <c r="E8" t="n">
-        <v>883.9118624929341</v>
+        <v>327.9311787448836</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>3456.610306670527</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>3456.610306670527</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.039563889495</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.319565057242</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1508.982295012133</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L9" t="n">
-        <v>728.2502693850971</v>
+        <v>101.1158936885247</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>990.8506408059275</v>
       </c>
       <c r="N9" t="n">
-        <v>728.2502693850971</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O9" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1508.982295012133</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C11" t="n">
-        <v>1082.081565025433</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D11" t="n">
-        <v>883.9118624929341</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E11" t="n">
-        <v>883.9118624929341</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1742.452134990903</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>2632.186882108306</v>
       </c>
       <c r="N11" t="n">
-        <v>2048.629262475834</v>
+        <v>2632.186882108306</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="W11" t="n">
-        <v>2326.039563889495</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X11" t="n">
-        <v>1914.319565057242</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.982295012133</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.051920498411</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O12" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2187.823032372085</v>
+        <v>2095.862980835547</v>
       </c>
       <c r="T13" t="n">
-        <v>2187.823032372085</v>
+        <v>2095.862980835547</v>
       </c>
       <c r="U13" t="n">
-        <v>2187.823032372085</v>
+        <v>2095.862980835547</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2194.979024403305</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C14" t="n">
-        <v>1768.078294416605</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D14" t="n">
-        <v>1344.785673601605</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>918.8087337494629</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>493.6845519388631</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M14" t="n">
-        <v>2075.853571611725</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T14" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U14" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.827388694835</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="W14" t="n">
-        <v>2614.827388694835</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X14" t="n">
-        <v>2614.827388694835</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y14" t="n">
-        <v>2614.827388694835</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>526.7051639431481</v>
       </c>
       <c r="M15" t="n">
-        <v>1189.334597738979</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="17">
@@ -5522,28 +5524,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5589,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677404</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.0572249530562</v>
+        <v>1058.412742328024</v>
       </c>
       <c r="C19" t="n">
-        <v>598.0846618319722</v>
+        <v>886.4401792069405</v>
       </c>
       <c r="D19" t="n">
-        <v>434.7678889587429</v>
+        <v>723.1234063337112</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5596831115964</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359498</v>
+        <v>1717.485375904543</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.56596197538</v>
+        <v>1474.921479350348</v>
       </c>
       <c r="Y19" t="n">
-        <v>960.2231936651219</v>
+        <v>1248.57871104009</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,34 +5755,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757484</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>1463.618246195025</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2467.904347614083</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5826,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806542</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5996,28 +5998,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,13 +6077,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5554397491844</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C25" t="n">
-        <v>371.5828766281004</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="D25" t="n">
-        <v>208.2661037548711</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X25" t="n">
-        <v>960.064176771508</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.72140846125</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C28" t="n">
-        <v>202.0712816655526</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>202.0712816655526</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6473,25 +6475,25 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>598.0846618319722</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C31" t="n">
-        <v>598.0846618319722</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D31" t="n">
-        <v>434.7678889587429</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5596831115964</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W31" t="n">
-        <v>1030.814527098233</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X31" t="n">
-        <v>788.2506305440379</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y31" t="n">
-        <v>788.2506305440379</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3608.081958945198</v>
+        <v>3416.58889144273</v>
       </c>
       <c r="C34" t="n">
-        <v>3436.109395824114</v>
+        <v>3416.58889144273</v>
       </c>
       <c r="D34" t="n">
-        <v>3272.792622950885</v>
+        <v>3416.58889144273</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>3250.380685595583</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>5103.902912240871</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>4823.718463741176</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>4542.006996349204</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>4267.154592521717</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>4024.590695967522</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>3798.247927657264</v>
+        <v>3416.58889144273</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
         <v>2113.800768076616</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3375.975369221655</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3204.002806100571</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3040.686033227342</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878299</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4591.611874017632</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="V37" t="n">
-        <v>4309.90040662566</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W37" t="n">
-        <v>4035.048002798173</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X37" t="n">
-        <v>3792.484106243979</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3566.14133793372</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7184,19 +7186,19 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>326.3817789554925</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>326.3817789554925</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>326.3817789554925</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>326.3817789554925</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>160.1248092497246</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>160.1248092497246</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1641.746281266528</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C41" t="n">
-        <v>1214.845551279828</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D41" t="n">
-        <v>791.5529304648283</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5529304648283</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2502693850971</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N41" t="n">
-        <v>1402.051920498411</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="O41" t="n">
-        <v>2048.629262475834</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2501.505342633781</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U41" t="n">
-        <v>2243.150433230194</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V41" t="n">
-        <v>2243.150433230194</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W41" t="n">
-        <v>2243.150433230194</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="X41" t="n">
-        <v>1831.430434397941</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="Y41" t="n">
-        <v>1641.746281266528</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J42" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K42" t="n">
-        <v>326.146107551374</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L42" t="n">
-        <v>326.146107551374</v>
+        <v>1499.181491994066</v>
       </c>
       <c r="M42" t="n">
-        <v>999.9477586646882</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.749409778002</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
-        <v>1673.749409778002</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>2325.683399131046</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>2162.366626257817</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>1996.15842041067</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>1514.243407987617</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157888</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298595</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.887736900259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>3547.849253828194</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>3377.714206347329</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>3134.374858573229</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.701408840427</v>
+        <v>2854.190410073533</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>2854.190410073533</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>2854.190410073533</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>2854.190410073533</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>2687.821930964195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1665.215719703719</v>
+        <v>2137.056663016762</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.314989717019</v>
+        <v>1710.155933030062</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.314989717019</v>
+        <v>1286.863312215063</v>
       </c>
       <c r="E44" t="n">
-        <v>812.3380498648767</v>
+        <v>860.8863723629203</v>
       </c>
       <c r="F44" t="n">
-        <v>387.2138680542769</v>
+        <v>435.7621905523205</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K44" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L44" t="n">
-        <v>801.1857969764337</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M44" t="n">
-        <v>801.1857969764337</v>
+        <v>578.0873763287925</v>
       </c>
       <c r="N44" t="n">
-        <v>1474.987448089748</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="O44" t="n">
-        <v>2148.789099203062</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="V44" t="n">
-        <v>2085.064083995249</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="W44" t="n">
-        <v>2085.064083995249</v>
+        <v>3373.962296185654</v>
       </c>
       <c r="X44" t="n">
-        <v>2085.064083995249</v>
+        <v>2962.242297353402</v>
       </c>
       <c r="Y44" t="n">
-        <v>2085.064083995249</v>
+        <v>2556.905027308292</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L45" t="n">
-        <v>515.5329466256644</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.259482656293</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C46" t="n">
-        <v>850.286919535209</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D46" t="n">
-        <v>686.9701466619797</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T46" t="n">
-        <v>1821.387250429946</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U46" t="n">
-        <v>1821.387250429946</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V46" t="n">
-        <v>1539.675783037975</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W46" t="n">
-        <v>1264.823379210488</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X46" t="n">
-        <v>1022.259482656293</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.259482656293</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>755.4826946928167</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>324.1219290572009</v>
+        <v>936.0015896197016</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>688.8730270346301</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>548.5822682748219</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,16 +8300,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>861.037476001507</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8316,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>177.2496653157807</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>52.02835575029447</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>636.7389220848333</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N11" t="n">
-        <v>690.388049074267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.4887841009801</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,16 +8929,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N14" t="n">
-        <v>690.388049074267</v>
+        <v>614.9834895856715</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
@@ -8945,7 +8947,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>488.256832526231</v>
+        <v>207.4745991594181</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>742.2139937908412</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9401,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159405</v>
       </c>
       <c r="L20" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9422,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>842.9044234665809</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>228.1560083209543</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314398</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146599</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>508.5750866678849</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10832,10 +10834,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>590.6660005002013</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>130.2228906892603</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>426.325900905103</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>548.7339083398076</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>213.2946135635565</v>
       </c>
       <c r="D2" t="n">
-        <v>232.927642327057</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>66.44073542471735</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>87.65045210707586</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,10 +22755,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>280.6658805773189</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22835,19 +22837,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>267.5156322128094</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.6172179931342754</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -22999,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.51087971180863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>221.9571368664639</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>167.3998528044513</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23078,7 +23080,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8716890996757</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23315,7 +23317,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>167.3998528044517</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>13.55037112485869</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -23473,10 +23475,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23552,16 +23554,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>350.7106522652346</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>19.29091348988678</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23662,10 +23664,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>125.8003826660205</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>167.1348117483759</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>59.64236734312286</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991921</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>106.2105945228214</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>44.90651342055943</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.7855238263084</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>66.94500215967423</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59.64236734312237</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>59.37454630891071</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.52700769166964</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.4649003340602</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25691,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>254.1147861334877</v>
       </c>
       <c r="Y41" t="n">
-        <v>213.4965857445594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>40.06988290904081</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>300.732656168009</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>114.2165555583295</v>
+        <v>68.1019186818112</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>462127.31971395</v>
+        <v>544665.4135840763</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>462127.31971395</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>462127.31971395</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>462127.31971395</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462127.31971395</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>688487.2438433729</v>
+        <v>688487.243843373</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>688487.2438433729</v>
+        <v>688487.243843373</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462127.3197139499</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462127.31971395</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="C2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="D2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="E2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="F2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931752</v>
       </c>
       <c r="G2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="H2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="I2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471599</v>
       </c>
       <c r="J2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471599</v>
       </c>
       <c r="K2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471596</v>
       </c>
       <c r="L2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="M2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="N2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471599</v>
       </c>
       <c r="O2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="P2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340384</v>
       </c>
       <c r="D4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433669</v>
+      </c>
+      <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="H4" t="n">
-        <v>800.0602599433671</v>
-      </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105558.5451174885</v>
+        <v>-156644.6390455774</v>
       </c>
       <c r="C6" t="n">
-        <v>122528.7586461956</v>
+        <v>144537.7626293978</v>
       </c>
       <c r="D6" t="n">
-        <v>122528.7586461956</v>
+        <v>144537.7626293978</v>
       </c>
       <c r="E6" t="n">
-        <v>156156.3586461956</v>
+        <v>178165.3626293977</v>
       </c>
       <c r="F6" t="n">
-        <v>156156.3586461956</v>
+        <v>178165.3626293977</v>
       </c>
       <c r="G6" t="n">
-        <v>52564.71838860061</v>
+        <v>112346.5594171671</v>
       </c>
       <c r="H6" t="n">
+        <v>216515.8391987867</v>
+      </c>
+      <c r="I6" t="n">
+        <v>216515.8391987869</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-18629.37107877454</v>
+      </c>
+      <c r="K6" t="n">
         <v>216515.8391987866</v>
       </c>
-      <c r="I6" t="n">
-        <v>216515.8391987866</v>
-      </c>
-      <c r="J6" t="n">
-        <v>38438.91071000682</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>216515.8391987867</v>
       </c>
-      <c r="L6" t="n">
-        <v>216515.8391987866</v>
-      </c>
       <c r="M6" t="n">
-        <v>216515.8391987866</v>
+        <v>216515.8391987868</v>
       </c>
       <c r="N6" t="n">
-        <v>216515.8391987868</v>
+        <v>216515.8391987869</v>
       </c>
       <c r="O6" t="n">
-        <v>156156.3586461956</v>
+        <v>178165.3626293978</v>
       </c>
       <c r="P6" t="n">
-        <v>156156.3586461956</v>
+        <v>178165.3626293979</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>717.1706522601938</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>286.8423062227549</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>511.3026454403758</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>837.8655862792848</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>139.6743035055494</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>29.51326903606492</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>598.4268796522105</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N11" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1084262398209</v>
+        <v>577.7038667512254</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>465.7417458120015</v>
+        <v>184.9595124451885</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>719.1172132785132</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211312</v>
       </c>
       <c r="L20" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>205.0592278086264</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969938</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36841,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586358</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37552,10 +37554,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>553.3863776657553</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>108.4520494844316</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>388.0138584724801</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>511.3026454403758</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1069203.419195127</v>
+        <v>1067285.701536565</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2820057.507897161</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>209.3371091232764</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>2.589607671000064</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>11.12043047005092</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>183.0414727191185</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>141.965842109514</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>343.9238303930778</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.15366458399251</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>40.79871210679592</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1144,13 +1144,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>253.4730871880425</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>367.9449739856063</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>47.90749350465877</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>173.3297473639658</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>186.5146679205613</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8833258811978</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>70.26751633932363</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6464323367722</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.9733955350582</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.74574112265447</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2098,10 +2098,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1720094918774</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>42.35873703018408</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1343384674811</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>218.008057705788</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.61444029309516</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X41" t="n">
-        <v>153.4880127104425</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068049</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3957,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.7047943182444</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>360.225788877405</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>96.44420510686378</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.453694912913</v>
+        <v>2108.573244913999</v>
       </c>
       <c r="C2" t="n">
-        <v>809.0020695358658</v>
+        <v>1681.672514927299</v>
       </c>
       <c r="D2" t="n">
-        <v>809.0020695358658</v>
+        <v>1258.379894112299</v>
       </c>
       <c r="E2" t="n">
-        <v>809.0020695358658</v>
+        <v>832.4029542601567</v>
       </c>
       <c r="F2" t="n">
-        <v>809.0020695358658</v>
+        <v>407.2787724495569</v>
       </c>
       <c r="G2" t="n">
         <v>404.6630071253144</v>
@@ -4336,46 +4336,46 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>1860.008469872807</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M2" t="n">
-        <v>1860.008469872807</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N2" t="n">
-        <v>2749.74321699021</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O2" t="n">
-        <v>3594.887867141022</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>3269.595002058796</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>3011.240092655208</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V2" t="n">
-        <v>2653.750677781458</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W2" t="n">
-        <v>2257.359328081805</v>
+        <v>2940.141608037781</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.639329249552</v>
+        <v>2528.421609205529</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.302059204443</v>
+        <v>2528.421609205529</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>662.38268391116</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>1499.181491994066</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M3" t="n">
-        <v>1499.181491994066</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="N3" t="n">
-        <v>1499.181491994066</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O3" t="n">
-        <v>1499.181491994066</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
         <v>1880.58538792333</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>756.4898314602763</v>
+        <v>720.0209756130199</v>
       </c>
       <c r="C4" t="n">
-        <v>584.5172683391922</v>
+        <v>720.0209756130199</v>
       </c>
       <c r="D4" t="n">
-        <v>421.2004954659629</v>
+        <v>720.0209756130199</v>
       </c>
       <c r="E4" t="n">
-        <v>254.9922896188165</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="F4" t="n">
-        <v>83.13051539337692</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G4" t="n">
-        <v>83.13051539337692</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H4" t="n">
-        <v>83.13051539337692</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
         <v>71.89775734282044</v>
@@ -4515,25 +4515,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T4" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U4" t="n">
-        <v>1972.126336256253</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="V4" t="n">
-        <v>1690.414868864282</v>
+        <v>1653.946013017025</v>
       </c>
       <c r="W4" t="n">
-        <v>1415.562465036795</v>
+        <v>1379.093609189538</v>
       </c>
       <c r="X4" t="n">
-        <v>1172.9985684826</v>
+        <v>1136.529712635343</v>
       </c>
       <c r="Y4" t="n">
-        <v>946.655800172342</v>
+        <v>910.1869443250855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.030402745774</v>
+        <v>2105.957479589756</v>
       </c>
       <c r="C5" t="n">
-        <v>1750.630562231114</v>
+        <v>1679.056749603056</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.337941416114</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="E5" t="n">
-        <v>901.3610015639716</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282043</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282043</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L5" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M5" t="n">
-        <v>961.6325044602232</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N5" t="n">
-        <v>1467.822123446195</v>
+        <v>2213.970710394522</v>
       </c>
       <c r="O5" t="n">
-        <v>2312.966773597007</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P5" t="n">
-        <v>3021.246052754935</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3373.962296185654</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U5" t="n">
-        <v>3115.607386782067</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V5" t="n">
-        <v>3115.607386782067</v>
+        <v>2922.197193580939</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.216037082414</v>
+        <v>2525.805843881286</v>
       </c>
       <c r="X5" t="n">
-        <v>2719.216037082414</v>
+        <v>2525.805843881286</v>
       </c>
       <c r="Y5" t="n">
-        <v>2313.878767037304</v>
+        <v>2525.805843881286</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>79.34440030473226</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>79.34440030473226</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K6" t="n">
-        <v>79.34440030473226</v>
+        <v>579.6411029776448</v>
       </c>
       <c r="L6" t="n">
-        <v>79.34440030473226</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="M6" t="n">
-        <v>79.34440030473226</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="N6" t="n">
-        <v>969.0791474221351</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O6" t="n">
-        <v>1798.566077838627</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P6" t="n">
-        <v>1798.566077838627</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q6" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4688,10 +4688,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.015436205311</v>
+        <v>581.9890643951119</v>
       </c>
       <c r="C7" t="n">
-        <v>171.042873084227</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="D7" t="n">
-        <v>171.042873084227</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="E7" t="n">
-        <v>171.042873084227</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F7" t="n">
-        <v>171.042873084227</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G7" t="n">
-        <v>171.042873084227</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>171.042873084227</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
         <v>129.3890855669785</v>
@@ -4758,19 +4758,19 @@
         <v>1838.836389500983</v>
       </c>
       <c r="U7" t="n">
-        <v>1558.651941001288</v>
+        <v>1797.625569191089</v>
       </c>
       <c r="V7" t="n">
-        <v>1276.940473609317</v>
+        <v>1515.914101799117</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.08806978183</v>
+        <v>1241.06169797163</v>
       </c>
       <c r="X7" t="n">
-        <v>759.5241732276346</v>
+        <v>998.4978014174355</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.1814049173767</v>
+        <v>772.1550331071776</v>
       </c>
     </row>
     <row r="8">
@@ -4780,64 +4780,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.101469398726</v>
+        <v>2015.821468230978</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.200739412026</v>
+        <v>2015.821468230978</v>
       </c>
       <c r="D8" t="n">
-        <v>753.908118597026</v>
+        <v>1592.528847415979</v>
       </c>
       <c r="E8" t="n">
-        <v>327.9311787448836</v>
+        <v>1166.551907563836</v>
       </c>
       <c r="F8" t="n">
-        <v>71.89775734282043</v>
+        <v>741.4277257532365</v>
       </c>
       <c r="G8" t="n">
-        <v>71.89775734282043</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>787.4060653183195</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>1677.140812435722</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M8" t="n">
-        <v>2566.875559553125</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N8" t="n">
-        <v>3456.610306670527</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>3456.610306670527</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3594.887867141021</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141021</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
         <v>3237.398452267271</v>
@@ -4846,10 +4846,10 @@
         <v>2841.007102567618</v>
       </c>
       <c r="X8" t="n">
-        <v>2429.287103735365</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.949833690256</v>
+        <v>2435.669832522508</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L9" t="n">
-        <v>101.1158936885247</v>
+        <v>908.8313307212242</v>
       </c>
       <c r="M9" t="n">
-        <v>990.8506408059275</v>
+        <v>908.8313307212242</v>
       </c>
       <c r="N9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4925,10 +4925,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1155.078879867057</v>
+        <v>624.7269035972822</v>
       </c>
       <c r="C10" t="n">
-        <v>983.1063167459732</v>
+        <v>452.7543404761982</v>
       </c>
       <c r="D10" t="n">
-        <v>819.7895438727439</v>
+        <v>452.7543404761982</v>
       </c>
       <c r="E10" t="n">
-        <v>653.5813380255975</v>
+        <v>286.5461346290517</v>
       </c>
       <c r="F10" t="n">
-        <v>481.7195638001579</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
         <v>129.3890855669785</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.003917271063</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="W10" t="n">
-        <v>1814.151513443576</v>
+        <v>1283.799537173801</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.587616889381</v>
+        <v>1041.235640619606</v>
       </c>
       <c r="Y10" t="n">
-        <v>1345.244848579123</v>
+        <v>814.8928723093479</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1773.192229807262</v>
+        <v>1499.734175271866</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.291499820562</v>
+        <v>1324.653622378971</v>
       </c>
       <c r="D11" t="n">
-        <v>922.9988790055627</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="E11" t="n">
-        <v>497.0219391534202</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F11" t="n">
-        <v>71.89775734282043</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>434.5012161597159</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.009524135215</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>1742.452134990903</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>2632.186882108306</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N11" t="n">
-        <v>2632.186882108306</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O11" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P11" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V11" t="n">
-        <v>3406.489212675808</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="W11" t="n">
-        <v>3010.097862976154</v>
+        <v>2736.639808440758</v>
       </c>
       <c r="X11" t="n">
-        <v>2598.377864143902</v>
+        <v>2324.919809608506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2193.040594098792</v>
+        <v>1919.582539563396</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M12" t="n">
-        <v>961.6325044602232</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.367251577626</v>
+        <v>969.0791474221352</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5162,10 +5162,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
         <v>129.3890855669785</v>
@@ -5226,25 +5226,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2095.862980835547</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>2095.862980835547</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>2095.862980835547</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1814.151513443576</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2177.531292217814</v>
+        <v>2052.107049928779</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.630562231114</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.337941416114</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E14" t="n">
-        <v>901.3610015639716</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F14" t="n">
-        <v>476.2368197533718</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282043</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1677.140812435722</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M14" t="n">
-        <v>2566.875559553125</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N14" t="n">
-        <v>3138.802387636838</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
-        <v>3138.802387636838</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>3138.802387636838</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.887867141021</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V14" t="n">
-        <v>3594.887867141021</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.436925386706</v>
+        <v>2940.141608037781</v>
       </c>
       <c r="X14" t="n">
-        <v>3002.716926554453</v>
+        <v>2528.421609205529</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.379656509343</v>
+        <v>2123.084339160419</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>343.5952466224115</v>
+        <v>579.6411029776448</v>
       </c>
       <c r="L15" t="n">
-        <v>526.7051639431481</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="M15" t="n">
         <v>1416.439911060551</v>
@@ -5399,10 +5399,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.4625940943901</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>315.4625940943901</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>315.4625940943901</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>315.4625940943901</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
         <v>129.3890855669785</v>
@@ -5460,28 +5460,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1058.412742328024</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>886.4401792069405</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>723.1234063337112</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1992.33777973203</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1717.485375904543</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1474.921479350348</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1248.57871104009</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757484</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195025</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614083</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100784</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>381.4468456473314</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>381.4468456473314</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M21" t="n">
-        <v>381.4468456473314</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3205.840321740789</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3033.867758619705</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3033.867758619705</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3033.867758619705</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036461</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4421.476826536766</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4139.765359144794</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3864.912955317307</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3622.349058763113</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.844867123559</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3278.556980224821</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C31" t="n">
-        <v>3106.584417103737</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D31" t="n">
-        <v>3106.584417103737</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5017.717281294594</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4774.377933520494</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4494.193485020798</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4212.482017628827</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W31" t="n">
-        <v>3937.62961380134</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X31" t="n">
-        <v>3695.065717247145</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y31" t="n">
-        <v>3468.722948936887</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982686</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.856391133499</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3416.58889144273</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3416.58889144273</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3416.58889144273</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3250.380685595583</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3416.58889144273</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1601.992572952389</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1601.992572952389</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1601.992572952389</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1445.967421099803</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.296542000307</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>2083.395812013608</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.103191198608</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.126251346466</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
         <v>1150.009524135215</v>
@@ -7420,43 +7420,43 @@
         <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>2929.479018370021</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="N41" t="n">
-        <v>3477.331532259118</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="O41" t="n">
-        <v>3477.331532259118</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P41" t="n">
-        <v>3477.331532259118</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259118</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>3490.520573014162</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>3335.482176336947</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>2930.144906291837</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>1499.181491994066</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M42" t="n">
         <v>1880.58538792333</v>
@@ -7532,10 +7532,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2497.65596225213</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C43" t="n">
-        <v>2325.683399131046</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>2162.366626257817</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>1996.15842041067</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>1824.296646185231</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>1658.039676479463</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>1514.243407987617</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>1698.493769157888</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>2821.860396298595</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>3467.887736900259</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>3594.887867141021</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>3547.849253828194</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>3377.714206347329</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T43" t="n">
-        <v>3134.374858573229</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U43" t="n">
-        <v>2854.190410073533</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V43" t="n">
-        <v>2854.190410073533</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W43" t="n">
-        <v>2854.190410073533</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X43" t="n">
-        <v>2854.190410073533</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y43" t="n">
-        <v>2687.821930964195</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2137.056663016762</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.155933030062</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D44" t="n">
-        <v>1286.863312215063</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E44" t="n">
-        <v>860.8863723629203</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F44" t="n">
-        <v>435.7621905523205</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>71.89775734282043</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>71.89775734282043</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M44" t="n">
-        <v>578.0873763287925</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N44" t="n">
-        <v>1467.822123446195</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.966773597007</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P44" t="n">
-        <v>3021.246052754935</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3373.962296185654</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3373.962296185654</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>3373.962296185654</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>3373.962296185654</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X44" t="n">
-        <v>2962.242297353402</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y44" t="n">
-        <v>2556.905027308292</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>79.34440030473226</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
         <v>351.0418895843234</v>
@@ -7742,13 +7742,13 @@
         <v>351.0418895843234</v>
       </c>
       <c r="O45" t="n">
-        <v>700.2421940220529</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P45" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
         <v>1880.58538792333</v>
@@ -7769,10 +7769,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.1504836861761</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
         <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7833,25 +7833,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2008.971436981848</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1728.786988482153</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.075521090182</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.223117262695</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>929.6592207084997</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>703.3164523982417</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>755.4826946928167</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>936.0015896197016</v>
+        <v>358.3024504212951</v>
       </c>
       <c r="O2" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>104.326942738997</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8224,13 +8224,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846871</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>548.5822682748219</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>256.1307554008616</v>
       </c>
       <c r="P5" t="n">
         <v>753.0089771212694</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>260.8293917679123</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>920.0649949987969</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>861.037476001507</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846871</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197013</v>
+        <v>548.5822682748222</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>177.2496653157807</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,13 +8537,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>52.02835575029447</v>
+        <v>860.3806729935143</v>
       </c>
       <c r="M9" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>920.0649949987969</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>636.7389220848333</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846871</v>
+        <v>222.1460683914359</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8777,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>920.0649949987969</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
-        <v>52.685158758287</v>
+        <v>861.0374760015069</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178782</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846871</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9834895856715</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>253.3075301902236</v>
       </c>
       <c r="L15" t="n">
-        <v>207.4745991594181</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,10 +9248,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>305.7192985581352</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>471.8155959159405</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,25 +9479,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>347.0350695816909</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>842.9044234665809</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>883.920771480625</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>667.8705234938802</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>855.4509062314398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>508.5750866678849</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10600,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10688,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10837,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10925,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>937.0340092178782</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846871</v>
+        <v>313.4135884998256</v>
       </c>
       <c r="N41" t="n">
-        <v>590.6660005002013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11147,7 +11147,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>408.3532410469382</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>548.7339083398076</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197013</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>375.8994699623531</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
@@ -11399,7 +11399,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>213.2946135635565</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.7060641154458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22707,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.65045210707586</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>95.85287999893288</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>280.6658805773189</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>9.990690331935184</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22953,16 +22953,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6172179931342754</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>236.5838919079029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>167.3998528044513</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>32.3506978008395</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>122.2356629785264</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>249.3019753228671</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23317,7 +23317,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>167.3998528044517</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>13.55037112485869</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>345.3823643092911</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23551,13 +23551,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.29091348988678</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>125.8003826660205</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>106.2105945228214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>236.5356156878673</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.94500215967423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4649003340602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -25690,10 +25690,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X41" t="n">
-        <v>254.1147861334877</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>40.06988290904081</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25918,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>68.1019186818112</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>544665.4135840763</v>
+        <v>544665.4135840762</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>544665.4135840762</v>
+        <v>544665.4135840763</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>544665.4135840762</v>
+        <v>544665.4135840761</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544665.4135840762</v>
+        <v>544665.4135840763</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>688487.243843373</v>
+        <v>688487.2438433729</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>233428.0343931754</v>
+      </c>
+      <c r="C2" t="n">
         <v>233428.0343931753</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>233428.0343931754</v>
       </c>
-      <c r="D2" t="n">
-        <v>233428.0343931753</v>
-      </c>
       <c r="E2" t="n">
-        <v>233428.0343931753</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="F2" t="n">
-        <v>233428.0343931752</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="G2" t="n">
         <v>295065.9616471598</v>
       </c>
       <c r="H2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="I2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="J2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="K2" t="n">
         <v>295065.9616471597</v>
       </c>
-      <c r="I2" t="n">
-        <v>295065.9616471599</v>
-      </c>
-      <c r="J2" t="n">
-        <v>295065.9616471599</v>
-      </c>
-      <c r="K2" t="n">
-        <v>295065.9616471596</v>
-      </c>
       <c r="L2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.96164716</v>
       </c>
       <c r="M2" t="n">
         <v>295065.9616471598</v>
       </c>
       <c r="N2" t="n">
-        <v>295065.9616471599</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="O2" t="n">
         <v>233428.0343931754</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>620.3761832340385</v>
       </c>
       <c r="C4" t="n">
-        <v>620.3761832340384</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="E4" t="n">
         <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>620.3761832340385</v>
@@ -26478,40 +26478,40 @@
         <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156644.6390455774</v>
+        <v>-156989.1836470663</v>
       </c>
       <c r="C6" t="n">
-        <v>144537.7626293978</v>
+        <v>144193.2180279088</v>
       </c>
       <c r="D6" t="n">
-        <v>144537.7626293978</v>
+        <v>144193.2180279088</v>
       </c>
       <c r="E6" t="n">
-        <v>178165.3626293977</v>
+        <v>177820.8180279088</v>
       </c>
       <c r="F6" t="n">
-        <v>178165.3626293977</v>
+        <v>177820.8180279088</v>
       </c>
       <c r="G6" t="n">
-        <v>112346.5594171671</v>
+        <v>112295.5287549827</v>
       </c>
       <c r="H6" t="n">
-        <v>216515.8391987867</v>
+        <v>216464.8085366024</v>
       </c>
       <c r="I6" t="n">
-        <v>216515.8391987869</v>
+        <v>216464.8085366024</v>
       </c>
       <c r="J6" t="n">
-        <v>-18629.37107877454</v>
+        <v>-18680.40174095891</v>
       </c>
       <c r="K6" t="n">
-        <v>216515.8391987866</v>
+        <v>216464.8085366024</v>
       </c>
       <c r="L6" t="n">
-        <v>216515.8391987867</v>
+        <v>216464.8085366026</v>
       </c>
       <c r="M6" t="n">
-        <v>216515.8391987868</v>
+        <v>216464.8085366024</v>
       </c>
       <c r="N6" t="n">
-        <v>216515.8391987869</v>
+        <v>216464.8085366024</v>
       </c>
       <c r="O6" t="n">
-        <v>178165.3626293978</v>
+        <v>177820.8180279089</v>
       </c>
       <c r="P6" t="n">
-        <v>178165.3626293979</v>
+        <v>177820.8180279088</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>717.1706522601938</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>898.7219667852555</v>
+        <v>321.0228275868491</v>
       </c>
       <c r="O2" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>511.3026454403758</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>218.7397960448375</v>
       </c>
       <c r="P5" t="n">
         <v>715.433615311038</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>238.430157934579</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>837.8655862792848</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852553</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>139.6743035055494</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>29.51326903606492</v>
+        <v>837.8655862792847</v>
       </c>
       <c r="M9" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>598.4268796522105</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852553</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
-        <v>29.51326903606477</v>
+        <v>837.8655862792847</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852553</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N14" t="n">
-        <v>577.7038667512254</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>230.9082963568903</v>
       </c>
       <c r="L15" t="n">
-        <v>184.9595124451885</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>436.0509951211312</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36199,25 +36199,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>324.5199828674614</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>821.5613952530392</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4895085811933</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>818.1712833969938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37320,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37557,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852553</v>
+        <v>275.9823256003937</v>
       </c>
       <c r="N41" t="n">
-        <v>553.3863776657553</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37867,7 +37867,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>385.2564605346102</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>511.3026454403758</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>352.7275802401309</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
@@ -38119,7 +38119,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
